--- a/sales_2013.xlsx
+++ b/sales_2013.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/C1DA070D-719E-4063-8735-11BC8CB33494/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC4DAA9-BDB8-4B4F-9E5B-3C3D95200C2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{CEC4DAA9-BDB8-4B4F-9E5B-3C3D95200C2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6B9C6D19-9360-E841-9228-194F35A9905C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="january_2013" sheetId="1" r:id="rId1"/>
+    <sheet name="february_2013" sheetId="2" r:id="rId2"/>
+    <sheet name="march_2013" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>Customer ID</t>
   </si>
@@ -100,6 +102,108 @@
   </si>
   <si>
     <t>1/31/2013</t>
+  </si>
+  <si>
+    <t>Daniel Farber</t>
+  </si>
+  <si>
+    <t>Laney Stone</t>
+  </si>
+  <si>
+    <t>Roger Lipney</t>
+  </si>
+  <si>
+    <t>Thomas haines</t>
+  </si>
+  <si>
+    <t>Anushka Vaz</t>
+  </si>
+  <si>
+    <t>Harriet Cooper</t>
+  </si>
+  <si>
+    <t>100-0008</t>
+  </si>
+  <si>
+    <t>100-0009</t>
+  </si>
+  <si>
+    <t>100-0010</t>
+  </si>
+  <si>
+    <t>100-0011</t>
+  </si>
+  <si>
+    <t>100-0012</t>
+  </si>
+  <si>
+    <t>100-0013</t>
+  </si>
+  <si>
+    <t>$,1367.00</t>
+  </si>
+  <si>
+    <t>2/2/2013</t>
+  </si>
+  <si>
+    <t>2/8/2013</t>
+  </si>
+  <si>
+    <t>2/15/2013</t>
+  </si>
+  <si>
+    <t>2/17/2013</t>
+  </si>
+  <si>
+    <t>2/21/2013</t>
+  </si>
+  <si>
+    <t>2/25/2013</t>
+  </si>
+  <si>
+    <t>Tony Song</t>
+  </si>
+  <si>
+    <t>rachel paz</t>
+  </si>
+  <si>
+    <t>Susan Wallace</t>
+  </si>
+  <si>
+    <t>100-0014</t>
+  </si>
+  <si>
+    <t>100-0015</t>
+  </si>
+  <si>
+    <t>100-0016</t>
+  </si>
+  <si>
+    <t>100-0017</t>
+  </si>
+  <si>
+    <t>100-0018</t>
+  </si>
+  <si>
+    <t>100-0019</t>
+  </si>
+  <si>
+    <t>3/4/2013</t>
+  </si>
+  <si>
+    <t>3/8/2013</t>
+  </si>
+  <si>
+    <t>3/17/2013</t>
+  </si>
+  <si>
+    <t>3/22/2013</t>
+  </si>
+  <si>
+    <t>3/28/2013</t>
+  </si>
+  <si>
+    <t>3/30/2013</t>
   </si>
 </sst>
 </file>
@@ -464,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA8EE36-4DFF-EA40-88BC-38A0AAE9B4A0}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -599,4 +703,286 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5EE71D-5EEE-2040-B4A0-7913BFF60A49}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.98828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.38671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9876</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8765</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7654</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2135</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6543</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1346</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5432</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1560</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4321</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1852</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB82CCBB-4EA3-D249-A96A-85D189905CF2}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.98828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.38671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8765</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1167</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2345</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1789</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6543</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2042</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3456</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1511</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4321</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2280</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>